--- a/data/pca/factorExposure/factorExposure_2009-04-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-04-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01745332949655931</v>
+        <v>0.01685895786069213</v>
       </c>
       <c r="C2">
-        <v>0.002066423695959663</v>
+        <v>0.001404922183448807</v>
       </c>
       <c r="D2">
-        <v>-0.01052014834615116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.01092653111814066</v>
+      </c>
+      <c r="E2">
+        <v>-0.001138851978745127</v>
+      </c>
+      <c r="F2">
+        <v>0.01883897170501873</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.08599080236071178</v>
+        <v>0.08944988216924447</v>
       </c>
       <c r="C4">
-        <v>0.02002549319576695</v>
+        <v>0.01569203962292059</v>
       </c>
       <c r="D4">
-        <v>-0.08144543050116557</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08436077476139427</v>
+      </c>
+      <c r="E4">
+        <v>-0.03470025237221423</v>
+      </c>
+      <c r="F4">
+        <v>-0.04312870900383991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0001169887242483144</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-9.515302121284267e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.0002814344370010831</v>
+      </c>
+      <c r="E5">
+        <v>0.0001081809024737826</v>
+      </c>
+      <c r="F5">
+        <v>-0.0006995835803235351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1590546803327562</v>
+        <v>0.1658804737275233</v>
       </c>
       <c r="C6">
-        <v>0.03592462326812402</v>
+        <v>0.03441181788889504</v>
       </c>
       <c r="D6">
-        <v>0.02575237356614095</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01677354368214085</v>
+      </c>
+      <c r="E6">
+        <v>-0.01750712732233597</v>
+      </c>
+      <c r="F6">
+        <v>-0.05715549696823474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05636777242837093</v>
+        <v>0.06057745336359887</v>
       </c>
       <c r="C7">
-        <v>0.001941696337465237</v>
+        <v>-0.001165728030148387</v>
       </c>
       <c r="D7">
-        <v>-0.04806527069743884</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0531823143417331</v>
+      </c>
+      <c r="E7">
+        <v>-0.02133319080673983</v>
+      </c>
+      <c r="F7">
+        <v>-0.05176659490049273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05814904513706672</v>
+        <v>0.05478225652868349</v>
       </c>
       <c r="C8">
-        <v>-0.00975824366526638</v>
+        <v>-0.01151714203440355</v>
       </c>
       <c r="D8">
-        <v>-0.02884939207897973</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03165508366807231</v>
+      </c>
+      <c r="E8">
+        <v>-0.0137762844157415</v>
+      </c>
+      <c r="F8">
+        <v>0.03411710386171456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06721747675638821</v>
+        <v>0.07006389858288224</v>
       </c>
       <c r="C9">
-        <v>0.01585898635196549</v>
+        <v>0.01147917111907226</v>
       </c>
       <c r="D9">
-        <v>-0.08525202926946852</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.0884401907817518</v>
+      </c>
+      <c r="E9">
+        <v>-0.03338327557523656</v>
+      </c>
+      <c r="F9">
+        <v>-0.06438768217896411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.09146722554800903</v>
+        <v>0.08939754520695821</v>
       </c>
       <c r="C10">
-        <v>0.02201075135960496</v>
+        <v>0.02456690956523154</v>
       </c>
       <c r="D10">
-        <v>0.1650174814975199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1550888729829478</v>
+      </c>
+      <c r="E10">
+        <v>0.03859908021398125</v>
+      </c>
+      <c r="F10">
+        <v>0.07691040340717717</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.08802766526891205</v>
+        <v>0.08521478345784539</v>
       </c>
       <c r="C11">
-        <v>0.01748342025599004</v>
+        <v>0.01249838411237904</v>
       </c>
       <c r="D11">
-        <v>-0.1189759810061982</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.123802200628076</v>
+      </c>
+      <c r="E11">
+        <v>-0.0602201945055616</v>
+      </c>
+      <c r="F11">
+        <v>-0.01582032879608351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09307451783791647</v>
+        <v>0.08835972607380951</v>
       </c>
       <c r="C12">
-        <v>0.01551778595861132</v>
+        <v>0.009963880778355543</v>
       </c>
       <c r="D12">
-        <v>-0.1245885009876505</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.136968165258898</v>
+      </c>
+      <c r="E12">
+        <v>-0.06341972485646814</v>
+      </c>
+      <c r="F12">
+        <v>-0.01877387351315921</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04508234830702117</v>
+        <v>0.045310218307367</v>
       </c>
       <c r="C13">
-        <v>0.007655869953944361</v>
+        <v>0.004174648517579347</v>
       </c>
       <c r="D13">
-        <v>-0.05016268835447889</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05757193251055071</v>
+      </c>
+      <c r="E13">
+        <v>-0.001457805879713558</v>
+      </c>
+      <c r="F13">
+        <v>-0.01557149340422209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01815278076658933</v>
+        <v>0.02133497146726819</v>
       </c>
       <c r="C14">
-        <v>0.01457537490543434</v>
+        <v>0.01363645434067894</v>
       </c>
       <c r="D14">
-        <v>-0.03143603434590448</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03456003428224309</v>
+      </c>
+      <c r="E14">
+        <v>-0.02427382356514788</v>
+      </c>
+      <c r="F14">
+        <v>-0.02122766731173957</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03418367397292032</v>
+        <v>0.03488177426654541</v>
       </c>
       <c r="C15">
-        <v>0.008488549922275343</v>
+        <v>0.006679303295074366</v>
       </c>
       <c r="D15">
-        <v>-0.05029109876408946</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.05083396566016999</v>
+      </c>
+      <c r="E15">
+        <v>-0.01583154727702204</v>
+      </c>
+      <c r="F15">
+        <v>-0.03023666346060707</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.06962569424975984</v>
+        <v>0.06851522779823531</v>
       </c>
       <c r="C16">
-        <v>0.006536835756157685</v>
+        <v>0.001556404871396794</v>
       </c>
       <c r="D16">
-        <v>-0.1204451317340346</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1319167147733807</v>
+      </c>
+      <c r="E16">
+        <v>-0.07346216024569686</v>
+      </c>
+      <c r="F16">
+        <v>-0.01736791400726291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.002303193948043715</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.001082427977279065</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.001894648555053929</v>
+      </c>
+      <c r="E17">
+        <v>-0.004725937093608711</v>
+      </c>
+      <c r="F17">
+        <v>0.004136749920551756</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.02905883044215183</v>
+        <v>0.04590666664503134</v>
       </c>
       <c r="C18">
-        <v>-0.0002493501249418481</v>
+        <v>-0.0001766894880992537</v>
       </c>
       <c r="D18">
-        <v>-0.02170689590851522</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.02091280080989836</v>
+      </c>
+      <c r="E18">
+        <v>0.004031374596216838</v>
+      </c>
+      <c r="F18">
+        <v>0.01613351384035361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06282231580339416</v>
+        <v>0.06193249232362513</v>
       </c>
       <c r="C20">
-        <v>0.005397370304240031</v>
+        <v>0.002444386558263134</v>
       </c>
       <c r="D20">
-        <v>-0.07878465591916188</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.08301827975107162</v>
+      </c>
+      <c r="E20">
+        <v>-0.06893926377533496</v>
+      </c>
+      <c r="F20">
+        <v>-0.03518869370286414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04012578755776299</v>
+        <v>0.04241770023244785</v>
       </c>
       <c r="C21">
-        <v>0.009897085880274424</v>
+        <v>0.007339832851176295</v>
       </c>
       <c r="D21">
-        <v>-0.03954810683291494</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03944321598428</v>
+      </c>
+      <c r="E21">
+        <v>-0.00199574049914408</v>
+      </c>
+      <c r="F21">
+        <v>0.01902888830257605</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04477351404581045</v>
+        <v>0.04458395019253605</v>
       </c>
       <c r="C22">
-        <v>0.003799242390386816</v>
+        <v>0.002528862327666977</v>
       </c>
       <c r="D22">
-        <v>-0.002453688074757178</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.01187668255745944</v>
+      </c>
+      <c r="E22">
+        <v>-0.03072312038804834</v>
+      </c>
+      <c r="F22">
+        <v>0.1021999718217955</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04478210888665248</v>
+        <v>0.04459128387744667</v>
       </c>
       <c r="C23">
-        <v>0.003801516227093894</v>
+        <v>0.002531033762941934</v>
       </c>
       <c r="D23">
-        <v>-0.002444820215944695</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.01186986470015544</v>
+      </c>
+      <c r="E23">
+        <v>-0.03073042425686591</v>
+      </c>
+      <c r="F23">
+        <v>0.1022411234291183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07736216599874467</v>
+        <v>0.074963356548521</v>
       </c>
       <c r="C24">
-        <v>0.007420276247450439</v>
+        <v>0.002683848538501788</v>
       </c>
       <c r="D24">
-        <v>-0.1225209343899977</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1258822507353664</v>
+      </c>
+      <c r="E24">
+        <v>-0.0585074548632161</v>
+      </c>
+      <c r="F24">
+        <v>-0.02669193044313049</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08217847852116782</v>
+        <v>0.07956776030281797</v>
       </c>
       <c r="C25">
-        <v>0.009958778372463275</v>
+        <v>0.005578165415813846</v>
       </c>
       <c r="D25">
-        <v>-0.1102775741293056</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1139757228078633</v>
+      </c>
+      <c r="E25">
+        <v>-0.04531817939988057</v>
+      </c>
+      <c r="F25">
+        <v>-0.02191287098133336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05601468120363765</v>
+        <v>0.06098370685205264</v>
       </c>
       <c r="C26">
-        <v>0.01874149640773141</v>
+        <v>0.0159890416571394</v>
       </c>
       <c r="D26">
-        <v>-0.04533409282277325</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.05246888311757589</v>
+      </c>
+      <c r="E26">
+        <v>-0.03167146684784629</v>
+      </c>
+      <c r="F26">
+        <v>0.009209546356223609</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1471398611432539</v>
+        <v>0.1525326472503193</v>
       </c>
       <c r="C28">
-        <v>0.02493345513125927</v>
+        <v>0.02992410181589515</v>
       </c>
       <c r="D28">
-        <v>0.2495705624158009</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2473500081972895</v>
+      </c>
+      <c r="E28">
+        <v>0.06198426750445962</v>
+      </c>
+      <c r="F28">
+        <v>-0.01869607779497076</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02542433948449022</v>
+        <v>0.02757009178935526</v>
       </c>
       <c r="C29">
-        <v>0.009837319354309077</v>
+        <v>0.009069512269062437</v>
       </c>
       <c r="D29">
-        <v>-0.03067527543420179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03268344382655048</v>
+      </c>
+      <c r="E29">
+        <v>-0.01806323785536297</v>
+      </c>
+      <c r="F29">
+        <v>0.01835718965801061</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05282307971195287</v>
+        <v>0.05174080255073375</v>
       </c>
       <c r="C30">
-        <v>0.006257251261048114</v>
+        <v>0.002413772892787397</v>
       </c>
       <c r="D30">
-        <v>-0.08072284625353945</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08570013146031311</v>
+      </c>
+      <c r="E30">
+        <v>-0.0218634275563634</v>
+      </c>
+      <c r="F30">
+        <v>-0.113198043546192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05112403153894877</v>
+        <v>0.05169125924180691</v>
       </c>
       <c r="C31">
-        <v>0.01883612066024497</v>
+        <v>0.01696042717883338</v>
       </c>
       <c r="D31">
-        <v>-0.02532572864809376</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02809522781752892</v>
+      </c>
+      <c r="E31">
+        <v>-0.03118360097527562</v>
+      </c>
+      <c r="F31">
+        <v>0.01173597817108205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04528973530602496</v>
+        <v>0.05009262640981071</v>
       </c>
       <c r="C32">
-        <v>0.001933134767393801</v>
+        <v>-0.001031869491793322</v>
       </c>
       <c r="D32">
-        <v>-0.03289855924499769</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03686327750205581</v>
+      </c>
+      <c r="E32">
+        <v>-0.03221898028449566</v>
+      </c>
+      <c r="F32">
+        <v>0.0006148870379427382</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08765784305188881</v>
+        <v>0.08859889841249304</v>
       </c>
       <c r="C33">
-        <v>0.01401149496061518</v>
+        <v>0.008606938123422401</v>
       </c>
       <c r="D33">
-        <v>-0.09504941982702345</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1065513123500895</v>
+      </c>
+      <c r="E33">
+        <v>-0.06080758598942486</v>
+      </c>
+      <c r="F33">
+        <v>-0.0262898100635812</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.065072185495524</v>
+        <v>0.06479871678719168</v>
       </c>
       <c r="C34">
-        <v>0.01556039802913833</v>
+        <v>0.01099504027644131</v>
       </c>
       <c r="D34">
-        <v>-0.1010316649667412</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1124880215494082</v>
+      </c>
+      <c r="E34">
+        <v>-0.0459273580343518</v>
+      </c>
+      <c r="F34">
+        <v>-0.04109846203298739</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02687929013731533</v>
+        <v>0.02833228702190049</v>
       </c>
       <c r="C35">
-        <v>0.005123311230493718</v>
+        <v>0.004517282369655273</v>
       </c>
       <c r="D35">
-        <v>-0.008656289218449445</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01175390068606741</v>
+      </c>
+      <c r="E35">
+        <v>-0.01820385575387809</v>
+      </c>
+      <c r="F35">
+        <v>0.002306507556368301</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02321568080090678</v>
+        <v>0.02776512269748911</v>
       </c>
       <c r="C36">
-        <v>0.008348045960159405</v>
+        <v>0.007435822225300796</v>
       </c>
       <c r="D36">
-        <v>-0.04002702041959054</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04280154906257611</v>
+      </c>
+      <c r="E36">
+        <v>-0.02113009094519119</v>
+      </c>
+      <c r="F36">
+        <v>-0.01974554260352333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.002936717850316586</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0009060852927371489</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.002984989562687555</v>
+      </c>
+      <c r="E37">
+        <v>-0.001193072533555556</v>
+      </c>
+      <c r="F37">
+        <v>0.0003688996903960147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1033178654861212</v>
+        <v>0.09435963200703641</v>
       </c>
       <c r="C39">
-        <v>0.02233315869429255</v>
+        <v>0.01632977845387999</v>
       </c>
       <c r="D39">
-        <v>-0.1558655106157446</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1545867550032491</v>
+      </c>
+      <c r="E39">
+        <v>-0.0742712121364664</v>
+      </c>
+      <c r="F39">
+        <v>-0.005426662295309626</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.0434820589822334</v>
+        <v>0.04852379647946757</v>
       </c>
       <c r="C40">
-        <v>0.01187543238203256</v>
+        <v>0.01032251048928848</v>
       </c>
       <c r="D40">
-        <v>-0.03282029784334676</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03945603704399456</v>
+      </c>
+      <c r="E40">
+        <v>-0.004150429273203513</v>
+      </c>
+      <c r="F40">
+        <v>0.02325382296222559</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02574047713483251</v>
+        <v>0.02811337129053384</v>
       </c>
       <c r="C41">
-        <v>0.008291827351305349</v>
+        <v>0.007902207708631693</v>
       </c>
       <c r="D41">
-        <v>-0.01179883609811809</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.0132581170158562</v>
+      </c>
+      <c r="E41">
+        <v>-0.01272706830255897</v>
+      </c>
+      <c r="F41">
+        <v>0.01264099514301543</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04064933332593941</v>
+        <v>0.03946346249929882</v>
       </c>
       <c r="C43">
-        <v>0.009158867134557451</v>
+        <v>0.008255813536131853</v>
       </c>
       <c r="D43">
-        <v>-0.02204407070219734</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.022994999345605</v>
+      </c>
+      <c r="E43">
+        <v>-0.02811379430243122</v>
+      </c>
+      <c r="F43">
+        <v>0.02485049162256269</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.06344475359478205</v>
+        <v>0.0707302601101447</v>
       </c>
       <c r="C44">
-        <v>0.02290993044624145</v>
+        <v>0.01929840127578571</v>
       </c>
       <c r="D44">
-        <v>-0.07838861137612266</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.08710910967347116</v>
+      </c>
+      <c r="E44">
+        <v>-0.07708028616695775</v>
+      </c>
+      <c r="F44">
+        <v>-0.2207821304472772</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.0001252131584563427</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>5.696838806085653e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>6.535855860786444e-05</v>
+      </c>
+      <c r="E45">
+        <v>0.0002796454801254185</v>
+      </c>
+      <c r="F45">
+        <v>-0.0001948600048642267</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02296279448550168</v>
+        <v>0.02540388301106968</v>
       </c>
       <c r="C46">
-        <v>0.005253318100639223</v>
+        <v>0.004338818488932327</v>
       </c>
       <c r="D46">
-        <v>-0.01525886631166771</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01814818581619823</v>
+      </c>
+      <c r="E46">
+        <v>-0.03649424099339611</v>
+      </c>
+      <c r="F46">
+        <v>0.02434713500931178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05456819646250217</v>
+        <v>0.05327675319298803</v>
       </c>
       <c r="C47">
-        <v>0.007440599627766309</v>
+        <v>0.005876790816726354</v>
       </c>
       <c r="D47">
-        <v>-0.01082562076931139</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01345776322396293</v>
+      </c>
+      <c r="E47">
+        <v>-0.02474665207492182</v>
+      </c>
+      <c r="F47">
+        <v>0.04664098271222145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04781024506224685</v>
+        <v>0.05153249944326693</v>
       </c>
       <c r="C48">
-        <v>0.005739127599289016</v>
+        <v>0.003284208984970676</v>
       </c>
       <c r="D48">
-        <v>-0.0522170618152111</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05430556981638408</v>
+      </c>
+      <c r="E48">
+        <v>-0.001723551363186546</v>
+      </c>
+      <c r="F48">
+        <v>-0.01556626229625905</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1950968566036423</v>
+        <v>0.1979260079745897</v>
       </c>
       <c r="C49">
-        <v>0.02793946324665814</v>
+        <v>0.02445236029157643</v>
       </c>
       <c r="D49">
-        <v>0.01104259182520056</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.005333743881868143</v>
+      </c>
+      <c r="E49">
+        <v>-0.02228457711227276</v>
+      </c>
+      <c r="F49">
+        <v>-0.05881391463016628</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04941762803104347</v>
+        <v>0.05218778361360875</v>
       </c>
       <c r="C50">
-        <v>0.0145889184657339</v>
+        <v>0.01316840068024694</v>
       </c>
       <c r="D50">
-        <v>-0.0245071098128877</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02692972426277609</v>
+      </c>
+      <c r="E50">
+        <v>-0.03233164145469812</v>
+      </c>
+      <c r="F50">
+        <v>-0.006285063224377297</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1521514885648663</v>
+        <v>0.1456327656249093</v>
       </c>
       <c r="C52">
-        <v>0.02502975885478575</v>
+        <v>0.02138400358443449</v>
       </c>
       <c r="D52">
-        <v>-0.04323405269317442</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04580020182153649</v>
+      </c>
+      <c r="E52">
+        <v>-0.03445415507004328</v>
+      </c>
+      <c r="F52">
+        <v>-0.03686073990578754</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1749931241950649</v>
+        <v>0.167741799807875</v>
       </c>
       <c r="C53">
-        <v>0.02767866163570751</v>
+        <v>0.0253581582065973</v>
       </c>
       <c r="D53">
-        <v>-0.004386543523092474</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.007147069225014136</v>
+      </c>
+      <c r="E53">
+        <v>-0.04161797738347731</v>
+      </c>
+      <c r="F53">
+        <v>-0.08307427303557671</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01451617268713993</v>
+        <v>0.01811923660556447</v>
       </c>
       <c r="C54">
-        <v>0.01200900793718686</v>
+        <v>0.01133533552701044</v>
       </c>
       <c r="D54">
-        <v>-0.02845613211225869</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02815712534713121</v>
+      </c>
+      <c r="E54">
+        <v>-0.0211008022959991</v>
+      </c>
+      <c r="F54">
+        <v>0.002769216128624017</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1190083386653334</v>
+        <v>0.1167321830469006</v>
       </c>
       <c r="C55">
-        <v>0.02411893901947454</v>
+        <v>0.02206178252674207</v>
       </c>
       <c r="D55">
-        <v>-0.003578291932463261</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01147459076737138</v>
+      </c>
+      <c r="E55">
+        <v>-0.0409335071601835</v>
+      </c>
+      <c r="F55">
+        <v>-0.02819996248223456</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1807793151244847</v>
+        <v>0.1747694925968019</v>
       </c>
       <c r="C56">
-        <v>0.0258828017437891</v>
+        <v>0.02383698066691025</v>
       </c>
       <c r="D56">
-        <v>0.004649754392240804</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0005861636916562795</v>
+      </c>
+      <c r="E56">
+        <v>-0.04026989322761088</v>
+      </c>
+      <c r="F56">
+        <v>-0.04317924686244123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04565159492719013</v>
+        <v>0.04443771014185108</v>
       </c>
       <c r="C58">
-        <v>0.004404054385226795</v>
+        <v>0.0004030066715903731</v>
       </c>
       <c r="D58">
-        <v>-0.07227568457515672</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.08105577121269257</v>
+      </c>
+      <c r="E58">
+        <v>-0.04020882168654764</v>
+      </c>
+      <c r="F58">
+        <v>0.04685986653689846</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.168477190776097</v>
+        <v>0.1736452385614962</v>
       </c>
       <c r="C59">
-        <v>0.0253603608853207</v>
+        <v>0.02933749173461375</v>
       </c>
       <c r="D59">
-        <v>0.213553668842305</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2118668708627849</v>
+      </c>
+      <c r="E59">
+        <v>0.05745479179173404</v>
+      </c>
+      <c r="F59">
+        <v>0.06613852848843345</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2276729807858184</v>
+        <v>0.2217274873383152</v>
       </c>
       <c r="C60">
-        <v>0.008269864059613065</v>
+        <v>0.003710318434073428</v>
       </c>
       <c r="D60">
-        <v>-0.02443762670495582</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.02518683471217158</v>
+      </c>
+      <c r="E60">
+        <v>0.01188982337325289</v>
+      </c>
+      <c r="F60">
+        <v>0.007890816971556002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.07539280334390469</v>
+        <v>0.07141031125543326</v>
       </c>
       <c r="C61">
-        <v>0.01612237343724549</v>
+        <v>0.01110244363046502</v>
       </c>
       <c r="D61">
-        <v>-0.1167843883778777</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1199117581766477</v>
+      </c>
+      <c r="E61">
+        <v>-0.04969800055928279</v>
+      </c>
+      <c r="F61">
+        <v>0.004696770230905365</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1718185570085284</v>
+        <v>0.1675317740985912</v>
       </c>
       <c r="C62">
-        <v>0.02872859376049255</v>
+        <v>0.02600842593465723</v>
       </c>
       <c r="D62">
-        <v>-0.001775447865304718</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.007440442214136223</v>
+      </c>
+      <c r="E62">
+        <v>-0.04289977886585091</v>
+      </c>
+      <c r="F62">
+        <v>-0.02469929979636893</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04289875297070097</v>
+        <v>0.04772616940169311</v>
       </c>
       <c r="C63">
-        <v>0.006051145302415872</v>
+        <v>0.003494710112687696</v>
       </c>
       <c r="D63">
-        <v>-0.06055321276250922</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06855985583927413</v>
+      </c>
+      <c r="E63">
+        <v>-0.02966603825454507</v>
+      </c>
+      <c r="F63">
+        <v>0.004972207349941226</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1140114832998131</v>
+        <v>0.1111673544227333</v>
       </c>
       <c r="C64">
-        <v>0.01911157608632454</v>
+        <v>0.0155215868428232</v>
       </c>
       <c r="D64">
-        <v>-0.04404269435634228</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04820605321905606</v>
+      </c>
+      <c r="E64">
+        <v>-0.03484832162237315</v>
+      </c>
+      <c r="F64">
+        <v>-0.01922236379389114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1503783129198131</v>
+        <v>0.1561207068377511</v>
       </c>
       <c r="C65">
-        <v>0.0419108319548905</v>
+        <v>0.04074339598597564</v>
       </c>
       <c r="D65">
-        <v>0.04754252022943672</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03700895821232186</v>
+      </c>
+      <c r="E65">
+        <v>-0.01152635933611301</v>
+      </c>
+      <c r="F65">
+        <v>-0.05887006214760201</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.125518076589022</v>
+        <v>0.1141496292975341</v>
       </c>
       <c r="C66">
-        <v>0.02144591859232389</v>
+        <v>0.01482990841653728</v>
       </c>
       <c r="D66">
-        <v>-0.1403053266874352</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1444707763632093</v>
+      </c>
+      <c r="E66">
+        <v>-0.07708813438396218</v>
+      </c>
+      <c r="F66">
+        <v>-0.009188179884689156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06038448127343046</v>
+        <v>0.05335314068508153</v>
       </c>
       <c r="C67">
-        <v>0.006604299239543403</v>
+        <v>0.004071225483793659</v>
       </c>
       <c r="D67">
-        <v>-0.05046168570926697</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.0541233575908792</v>
+      </c>
+      <c r="E67">
+        <v>-0.02423396196329411</v>
+      </c>
+      <c r="F67">
+        <v>0.08628975325980036</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1178867191263353</v>
+        <v>0.1249885032624559</v>
       </c>
       <c r="C68">
-        <v>0.03355145157182395</v>
+        <v>0.03953974935170998</v>
       </c>
       <c r="D68">
-        <v>0.2534012110310457</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.252478630736437</v>
+      </c>
+      <c r="E68">
+        <v>0.08952804876000564</v>
+      </c>
+      <c r="F68">
+        <v>-0.02998546406908804</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.0400569172144371</v>
+        <v>0.03921323440218821</v>
       </c>
       <c r="C69">
-        <v>0.003518244270340839</v>
+        <v>0.002470311713455433</v>
       </c>
       <c r="D69">
-        <v>-0.009221456724052415</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01012545104575325</v>
+      </c>
+      <c r="E69">
+        <v>-0.02950699898826359</v>
+      </c>
+      <c r="F69">
+        <v>0.02205035509947159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06886718648837283</v>
+        <v>0.06986156331402905</v>
       </c>
       <c r="C70">
-        <v>-0.02295681944137041</v>
+        <v>-0.02469341087248987</v>
       </c>
       <c r="D70">
-        <v>-0.03649085117324958</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.03538784094068034</v>
+      </c>
+      <c r="E70">
+        <v>0.03782809367488551</v>
+      </c>
+      <c r="F70">
+        <v>0.3813680256686316</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1372556672433621</v>
+        <v>0.1452357000480594</v>
       </c>
       <c r="C71">
-        <v>0.03891700567311149</v>
+        <v>0.04475405876689174</v>
       </c>
       <c r="D71">
-        <v>0.266895377849443</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2616911710580785</v>
+      </c>
+      <c r="E71">
+        <v>0.09887746383871177</v>
+      </c>
+      <c r="F71">
+        <v>-0.03207036924041543</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1380546234675282</v>
+        <v>0.1438652201733707</v>
       </c>
       <c r="C72">
-        <v>0.03242194144945886</v>
+        <v>0.03161497486847359</v>
       </c>
       <c r="D72">
-        <v>-0.002014651245444742</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0001938139768518721</v>
+      </c>
+      <c r="E72">
+        <v>-0.0453623152254205</v>
+      </c>
+      <c r="F72">
+        <v>-0.03546149182025878</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.1967379846978148</v>
+        <v>0.2008652913518819</v>
       </c>
       <c r="C73">
-        <v>0.02163943533624612</v>
+        <v>0.01659577335561164</v>
       </c>
       <c r="D73">
-        <v>-0.008711747457762344</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01640546861712449</v>
+      </c>
+      <c r="E73">
+        <v>-0.06473655482903344</v>
+      </c>
+      <c r="F73">
+        <v>-0.01881232183259842</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08830965842101736</v>
+        <v>0.08826288092440474</v>
       </c>
       <c r="C74">
-        <v>0.01639904152066934</v>
+        <v>0.01457004940698133</v>
       </c>
       <c r="D74">
-        <v>-0.01059467554593646</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01592023549357166</v>
+      </c>
+      <c r="E74">
+        <v>-0.050070234657647</v>
+      </c>
+      <c r="F74">
+        <v>-0.04795173993401231</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1303878572549867</v>
+        <v>0.1225644025426301</v>
       </c>
       <c r="C75">
-        <v>0.03475860575093685</v>
+        <v>0.03157546537082346</v>
       </c>
       <c r="D75">
-        <v>-0.02579752186938763</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03161461890710154</v>
+      </c>
+      <c r="E75">
+        <v>-0.06203774369593024</v>
+      </c>
+      <c r="F75">
+        <v>-0.01204323233334423</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07951367014837658</v>
+        <v>0.09280851614242443</v>
       </c>
       <c r="C77">
-        <v>0.01511101212922977</v>
+        <v>0.01091559898992224</v>
       </c>
       <c r="D77">
-        <v>-0.1230258180699099</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1228869918700732</v>
+      </c>
+      <c r="E77">
+        <v>-0.05361631027390893</v>
+      </c>
+      <c r="F77">
+        <v>-0.05158520260289352</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09737085922416293</v>
+        <v>0.09871514770126691</v>
       </c>
       <c r="C78">
-        <v>0.0442369620198207</v>
+        <v>0.04072779711236493</v>
       </c>
       <c r="D78">
-        <v>-0.1159711593533886</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1144162927125504</v>
+      </c>
+      <c r="E78">
+        <v>-0.0815868776627508</v>
+      </c>
+      <c r="F78">
+        <v>-0.04389226951549269</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1684713903466237</v>
+        <v>0.1640653382369523</v>
       </c>
       <c r="C79">
-        <v>0.032117706864968</v>
+        <v>0.02905880388748382</v>
       </c>
       <c r="D79">
-        <v>-0.01102544956572381</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01692528372391058</v>
+      </c>
+      <c r="E79">
+        <v>-0.05138914456351842</v>
+      </c>
+      <c r="F79">
+        <v>-0.00613051969650679</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08019295012296997</v>
+        <v>0.07887108974852072</v>
       </c>
       <c r="C80">
-        <v>0.00392150392234621</v>
+        <v>0.001521925088267252</v>
       </c>
       <c r="D80">
-        <v>-0.05059495317004786</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05166660840069204</v>
+      </c>
+      <c r="E80">
+        <v>-0.03581121254922214</v>
+      </c>
+      <c r="F80">
+        <v>0.04974259484011615</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1180446989384816</v>
+        <v>0.111936363245541</v>
       </c>
       <c r="C81">
-        <v>0.0366244464675581</v>
+        <v>0.03494131081765982</v>
       </c>
       <c r="D81">
-        <v>-0.004736947639380877</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01046556054140987</v>
+      </c>
+      <c r="E81">
+        <v>-0.0552033871549496</v>
+      </c>
+      <c r="F81">
+        <v>-0.0004913999777799728</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1638938883597805</v>
+        <v>0.1616054733582276</v>
       </c>
       <c r="C82">
-        <v>0.03204241537025439</v>
+        <v>0.0296598267766809</v>
       </c>
       <c r="D82">
-        <v>-0.003942840801768728</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.004685526877648955</v>
+      </c>
+      <c r="E82">
+        <v>-0.03994715468665501</v>
+      </c>
+      <c r="F82">
+        <v>-0.08662959775350591</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.05589276983734871</v>
+        <v>0.05169378233787496</v>
       </c>
       <c r="C83">
-        <v>0.005472882710935783</v>
+        <v>0.003565317309940866</v>
       </c>
       <c r="D83">
-        <v>-0.03815643730821575</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03817688983612658</v>
+      </c>
+      <c r="E83">
+        <v>0.01111064216242774</v>
+      </c>
+      <c r="F83">
+        <v>0.02899879398929255</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05710502220728386</v>
+        <v>0.05329442736603188</v>
       </c>
       <c r="C84">
-        <v>0.01395957260960906</v>
+        <v>0.0111036146633486</v>
       </c>
       <c r="D84">
-        <v>-0.07353655454685436</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07451344561665342</v>
+      </c>
+      <c r="E84">
+        <v>-0.01957527857719823</v>
+      </c>
+      <c r="F84">
+        <v>-0.001954477182565274</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1401876430891764</v>
+        <v>0.1346847771431275</v>
       </c>
       <c r="C85">
-        <v>0.03539269098178755</v>
+        <v>0.03309211486977525</v>
       </c>
       <c r="D85">
-        <v>-0.007193579626584001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01153734254742069</v>
+      </c>
+      <c r="E85">
+        <v>-0.04807455839129597</v>
+      </c>
+      <c r="F85">
+        <v>-0.05471948222567516</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08153114116702075</v>
+        <v>0.07872798065448512</v>
       </c>
       <c r="C86">
-        <v>-0.00492311821233677</v>
+        <v>-0.00782692052009993</v>
       </c>
       <c r="D86">
-        <v>-0.02372916109443607</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05194427146939177</v>
+      </c>
+      <c r="E86">
+        <v>-0.08143992507782644</v>
+      </c>
+      <c r="F86">
+        <v>0.7903090052717614</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.0891563427343461</v>
+        <v>0.08912471301439102</v>
       </c>
       <c r="C87">
-        <v>0.0267683473969011</v>
+        <v>0.02196813571005604</v>
       </c>
       <c r="D87">
-        <v>-0.08393203294342649</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08783861542736483</v>
+      </c>
+      <c r="E87">
+        <v>0.05763981007398788</v>
+      </c>
+      <c r="F87">
+        <v>-0.08858392384615453</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06183173614902652</v>
+        <v>0.06109109885650497</v>
       </c>
       <c r="C88">
-        <v>0.006939780989853288</v>
+        <v>0.004365926183113557</v>
       </c>
       <c r="D88">
-        <v>-0.05394523395605085</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.05338861740230898</v>
+      </c>
+      <c r="E88">
+        <v>-0.03396049619643056</v>
+      </c>
+      <c r="F88">
+        <v>-0.0003788887655887577</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1274767122640914</v>
+        <v>0.1329491839806258</v>
       </c>
       <c r="C89">
-        <v>0.01415321361735197</v>
+        <v>0.01966757152259612</v>
       </c>
       <c r="D89">
-        <v>0.230119282070459</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2345422973717963</v>
+      </c>
+      <c r="E89">
+        <v>0.09169641317861017</v>
+      </c>
+      <c r="F89">
+        <v>-0.01802382942676685</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1487708490224623</v>
+        <v>0.160809829154224</v>
       </c>
       <c r="C90">
-        <v>0.03553442869038165</v>
+        <v>0.04209843274776671</v>
       </c>
       <c r="D90">
-        <v>0.2560651775323636</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2597164728526742</v>
+      </c>
+      <c r="E90">
+        <v>0.1189338400191778</v>
+      </c>
+      <c r="F90">
+        <v>-0.02383488177218632</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1255231210324052</v>
+        <v>0.121188249943475</v>
       </c>
       <c r="C91">
-        <v>0.02611825001755491</v>
+        <v>0.02492764967917258</v>
       </c>
       <c r="D91">
-        <v>0.0200663932847606</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01541221441691521</v>
+      </c>
+      <c r="E91">
+        <v>-0.056426618809533</v>
+      </c>
+      <c r="F91">
+        <v>0.02620532413463207</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1494051624615569</v>
+        <v>0.15349236470731</v>
       </c>
       <c r="C92">
-        <v>0.02647811032926682</v>
+        <v>0.03248291508822163</v>
       </c>
       <c r="D92">
-        <v>0.2819706588960673</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2852059390027532</v>
+      </c>
+      <c r="E92">
+        <v>0.1098725566452183</v>
+      </c>
+      <c r="F92">
+        <v>-0.008466960440556996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1533090659125544</v>
+        <v>0.163183600587317</v>
       </c>
       <c r="C93">
-        <v>0.03152597367303372</v>
+        <v>0.0367733038995355</v>
       </c>
       <c r="D93">
-        <v>0.2494218089744737</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2528835683233914</v>
+      </c>
+      <c r="E93">
+        <v>0.07254366598209734</v>
+      </c>
+      <c r="F93">
+        <v>-0.02170077496844496</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1293069116388044</v>
+        <v>0.1217833760464542</v>
       </c>
       <c r="C94">
-        <v>0.03076820814954855</v>
+        <v>0.02720869500493776</v>
       </c>
       <c r="D94">
-        <v>-0.03820997353631282</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04256286144578561</v>
+      </c>
+      <c r="E94">
+        <v>-0.06350057338911644</v>
+      </c>
+      <c r="F94">
+        <v>-0.01556299331145418</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1264116432215069</v>
+        <v>0.1291914229140154</v>
       </c>
       <c r="C95">
-        <v>0.01302221896522822</v>
+        <v>0.007578092116869564</v>
       </c>
       <c r="D95">
-        <v>-0.09444482414799714</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1059299186709121</v>
+      </c>
+      <c r="E95">
+        <v>-0.07028719730209816</v>
+      </c>
+      <c r="F95">
+        <v>0.02649523002677828</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1565114854797304</v>
+        <v>0.1424327936687185</v>
       </c>
       <c r="C96">
-        <v>-0.981764891493386</v>
+        <v>-0.9828423957894966</v>
       </c>
       <c r="D96">
-        <v>0.0338385078883393</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05687106068061518</v>
+      </c>
+      <c r="E96">
+        <v>-0.05225981019495262</v>
+      </c>
+      <c r="F96">
+        <v>-0.04528906623708779</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1894960591669869</v>
+        <v>0.1935435040767714</v>
       </c>
       <c r="C97">
-        <v>0.002518826113083518</v>
+        <v>0.0001469602534923079</v>
       </c>
       <c r="D97">
-        <v>0.02055950209729416</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.02603355460755453</v>
+      </c>
+      <c r="E97">
+        <v>-0.01155365598771668</v>
+      </c>
+      <c r="F97">
+        <v>0.187161510032108</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1944247827448287</v>
+        <v>0.2004847431712412</v>
       </c>
       <c r="C98">
-        <v>0.01617019657621036</v>
+        <v>0.01121810250562544</v>
       </c>
       <c r="D98">
-        <v>-0.01023998135809026</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01285301553247242</v>
+      </c>
+      <c r="E98">
+        <v>0.09114996113161809</v>
+      </c>
+      <c r="F98">
+        <v>0.08947493661548098</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05760923744270294</v>
+        <v>0.05714636168701473</v>
       </c>
       <c r="C99">
-        <v>-0.0001984676169900306</v>
+        <v>-0.002341799592756015</v>
       </c>
       <c r="D99">
-        <v>-0.0421365713720085</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.04731650610445136</v>
+      </c>
+      <c r="E99">
+        <v>-0.02891248244007797</v>
+      </c>
+      <c r="F99">
+        <v>0.006865366376466206</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1442411598653248</v>
+        <v>0.1335456458898779</v>
       </c>
       <c r="C100">
-        <v>-0.03612753119089662</v>
+        <v>-0.0457902485295099</v>
       </c>
       <c r="D100">
-        <v>-0.4233020330018434</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3805003450060683</v>
+      </c>
+      <c r="E100">
+        <v>0.886092599140252</v>
+      </c>
+      <c r="F100">
+        <v>0.00455291856256688</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02543245772034613</v>
+        <v>0.02762780025816744</v>
       </c>
       <c r="C101">
-        <v>0.009848408056830819</v>
+        <v>0.009101585094509361</v>
       </c>
       <c r="D101">
-        <v>-0.0301934422546804</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03222248500910273</v>
+      </c>
+      <c r="E101">
+        <v>-0.01748211500478765</v>
+      </c>
+      <c r="F101">
+        <v>0.02096639309006422</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
